--- a/SQL/tablas_Buitrago.xlsx
+++ b/SQL/tablas_Buitrago.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buitraguito/Documents/Development/Coderhouse/SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1738B71B-532B-D440-90BB-CC08C02A1741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F41D32-7BCB-A746-A846-3C98C9C3B6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0B0E56E5-6E24-B146-A2A8-844FB56B4D13}"/>
   </bookViews>
   <sheets>
-    <sheet name="tables" sheetId="1" r:id="rId1"/>
-    <sheet name="tables description" sheetId="2" r:id="rId2"/>
+    <sheet name="tables description" sheetId="2" r:id="rId1"/>
+    <sheet name="tables" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
   <si>
     <t>cliente</t>
   </si>
@@ -75,9 +75,6 @@
     <t>factura</t>
   </si>
   <si>
-    <t>codifo pais</t>
-  </si>
-  <si>
     <t>pais</t>
   </si>
   <si>
@@ -316,13 +313,76 @@
   </si>
   <si>
     <t>Foreign key</t>
+  </si>
+  <si>
+    <t>varChar</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>clasificaciond e las alergias que una mascota puede tener</t>
+  </si>
+  <si>
+    <t>identifica si es un canino, un felino, etc.</t>
+  </si>
+  <si>
+    <t>informacion especifica de un cliente</t>
+  </si>
+  <si>
+    <t>informacion especifica de una mascota</t>
+  </si>
+  <si>
+    <t>informacion de los planes disponibles que el cliente puede o adquirir</t>
+  </si>
+  <si>
+    <t>informcion de los productos disponibles</t>
+  </si>
+  <si>
+    <t>clasificacion de los productos</t>
+  </si>
+  <si>
+    <t>clasificacion del proveedor, si es de comida, jugetes, accesorios, etc.</t>
+  </si>
+  <si>
+    <t>informacion del proveedor</t>
+  </si>
+  <si>
+    <t>informacion del tipo y forma de envio (terrestre, area, maritima)</t>
+  </si>
+  <si>
+    <t>informacion y descripcion de la factura de compra</t>
+  </si>
+  <si>
+    <t>informacion del codigo telefonico del pais</t>
+  </si>
+  <si>
+    <t>informacion del pais</t>
+  </si>
+  <si>
+    <t>informacion de los estados pertenecientes a un pais</t>
+  </si>
+  <si>
+    <t>informacion de la ciudad perteneciente a un pais</t>
+  </si>
+  <si>
+    <t>informacion del tipo</t>
+  </si>
+  <si>
+    <t>informacion de forma de pago (tarjeta de credito, transferencia, paypal, etc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +394,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -374,13 +441,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,661 +766,891 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DC82EC-C4E6-4440-91DD-D432D15854BF}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F9F0D-9923-2446-B110-3557E5114262}">
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="BC1" sqref="BC1:BD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" customWidth="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" customWidth="1"/>
-    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" customWidth="1"/>
-    <col min="27" max="27" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.1640625" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" customWidth="1"/>
-    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" customWidth="1"/>
-    <col min="33" max="33" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.1640625" customWidth="1"/>
-    <col min="35" max="35" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.33203125" customWidth="1"/>
-    <col min="37" max="37" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
+    <col min="22" max="22" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.83203125" customWidth="1"/>
+    <col min="25" max="25" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5" customWidth="1"/>
+    <col min="31" max="31" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" customWidth="1"/>
+    <col min="34" max="34" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.6640625" customWidth="1"/>
+    <col min="37" max="37" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" customWidth="1"/>
+    <col min="40" max="40" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.5" customWidth="1"/>
+    <col min="43" max="43" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.5" customWidth="1"/>
+    <col min="46" max="46" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6" customWidth="1"/>
+    <col min="49" max="49" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.1640625" customWidth="1"/>
+    <col min="52" max="52" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.5" customWidth="1"/>
+    <col min="55" max="55" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="5"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3" t="s">
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD1" s="5"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="3"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="AL2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AL4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="BD4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="Z5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="AC5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="4"/>
+      <c r="AH5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="AI5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AH6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" t="s">
-        <v>92</v>
-      </c>
-      <c r="U4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" t="s">
-        <v>92</v>
-      </c>
-      <c r="W7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" t="s">
-        <v>92</v>
-      </c>
-      <c r="W8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
-      </c>
-      <c r="W9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="Z10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="B12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" t="s">
-        <v>92</v>
+      <c r="Z12" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DC82EC-C4E6-4440-91DD-D432D15854BF}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SQL/tablas_Buitrago.xlsx
+++ b/SQL/tablas_Buitrago.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buitraguito/Documents/Development/Coderhouse/SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F41D32-7BCB-A746-A846-3C98C9C3B6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41189B0-AEE3-784E-85A2-8CADB5FD1803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0B0E56E5-6E24-B146-A2A8-844FB56B4D13}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0B0E56E5-6E24-B146-A2A8-844FB56B4D13}"/>
   </bookViews>
   <sheets>
     <sheet name="tables description" sheetId="2" r:id="rId1"/>
@@ -449,10 +449,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DC82EC-C4E6-4440-91DD-D432D15854BF}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F9F0D-9923-2446-B110-3557E5114262}">
   <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1:BD4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,100 +1002,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="6"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="5"/>
+      <c r="T1" s="6"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="5"/>
+      <c r="W1" s="6"/>
       <c r="X1" s="3"/>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="5"/>
+      <c r="Z1" s="6"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="5"/>
+      <c r="AC1" s="6"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="5"/>
+      <c r="AF1" s="6"/>
       <c r="AG1" s="3"/>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="5"/>
+      <c r="AI1" s="6"/>
       <c r="AJ1" s="3"/>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AL1" s="5"/>
+      <c r="AL1" s="6"/>
       <c r="AM1" s="3"/>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AO1" s="5"/>
+      <c r="AO1" s="6"/>
       <c r="AP1" s="3"/>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AR1" s="5"/>
+      <c r="AR1" s="6"/>
       <c r="AS1" s="3"/>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="5"/>
+      <c r="AU1" s="6"/>
       <c r="AV1" s="3"/>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" s="5"/>
+      <c r="AX1" s="6"/>
       <c r="AY1" s="3"/>
-      <c r="AZ1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BA1" s="5"/>
+      <c r="BA1" s="6"/>
       <c r="BB1" s="3"/>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BD1" s="5"/>
+      <c r="BD1" s="6"/>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1241,42 +1241,42 @@
       <c r="M3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>92</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>92</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="5" t="s">
         <v>92</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="5" t="s">
         <v>92</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="5" t="s">
         <v>92</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="5" t="s">
         <v>92</v>
       </c>
       <c r="AD3" s="4"/>
@@ -1369,28 +1369,28 @@
       <c r="P4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
         <v>92</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>92</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>92</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="5" t="s">
         <v>92</v>
       </c>
       <c r="AA4" s="4"/>
@@ -1403,7 +1403,7 @@
       <c r="AE4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="5" t="s">
         <v>92</v>
       </c>
       <c r="AG4" s="4"/>
@@ -1466,14 +1466,14 @@
       <c r="Y5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="5" t="s">
         <v>92</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="5" t="s">
         <v>92</v>
       </c>
       <c r="AD5" s="4"/>
@@ -1512,7 +1512,7 @@
       <c r="Y6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="5" t="s">
         <v>92</v>
       </c>
       <c r="AA6" s="4"/>
@@ -1631,6 +1631,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="AH1:AI1"/>
@@ -1639,17 +1650,6 @@
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
